--- a/docs/RISK ASSESMENT FORM.xlsx
+++ b/docs/RISK ASSESMENT FORM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA DESKTOP COPY KE D\FILE FILE DIPAKAI\KONFIRMASI &amp; RISK ASSESMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\akseptasi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="FIRE RT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'PAR RT'!$A$1:$L$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'PAR TOKO'!$A$1:$L$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1599,8 +1599,8 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
